--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\entropy-cloud\nop-sys\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D2FC7-1F12-4709-84C8-6010F862CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FF394-08AB-445E-BAE7-5EE3DC96C1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -31,14 +31,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -376,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.nop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maven.artifactId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,6 +1161,10 @@
   </si>
   <si>
     <t>#变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.entropy-cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,43 +1474,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,6 +1489,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,6 +1502,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,6 +1523,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1901,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1913,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1925,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1937,10 +1929,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1949,10 +1941,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1961,10 +1953,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1973,10 +1965,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1985,10 +1977,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1997,10 +1989,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -2094,7 +2086,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2117,7 +2109,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -2126,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -2223,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2264,7 +2256,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -2297,7 +2289,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>71</v>
@@ -2331,14 +2323,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -2362,14 +2354,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -2403,13 +2395,13 @@
         <v>54</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2434,7 +2426,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -2465,7 +2457,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -2498,7 +2490,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -2529,7 +2521,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -2562,7 +2554,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -2673,7 +2665,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2696,7 +2688,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -2705,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -2802,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2878,17 +2870,17 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -2912,11 +2904,11 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>23</v>
@@ -2941,14 +2933,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
@@ -2970,14 +2962,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -3009,7 +3001,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -3040,7 +3032,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -3073,7 +3065,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -3104,7 +3096,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -3137,7 +3129,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -3231,7 +3223,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -3254,7 +3246,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -3263,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -3360,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3402,14 +3394,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -3433,11 +3425,11 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>23</v>
@@ -3462,14 +3454,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7"/>
@@ -3491,14 +3483,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
@@ -3530,7 +3522,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -3561,7 +3553,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -3594,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -3625,7 +3617,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -3658,7 +3650,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -3726,7 +3718,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3738,7 +3730,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
@@ -3755,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3763,32 +3755,32 @@
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3796,54 +3788,54 @@
         <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,7 +4017,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4042,11 +4034,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4057,10 +4049,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -4076,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -4093,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -4108,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -4123,7 +4115,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4140,7 +4132,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -4155,7 +4147,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -4172,13 +4164,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4293,7 +4285,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -4316,7 +4308,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -4325,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -4422,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4463,10 +4455,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
@@ -4497,7 +4489,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
@@ -4526,23 +4518,23 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -4557,14 +4549,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -4586,14 +4578,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
@@ -4615,14 +4607,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
@@ -4642,14 +4634,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
@@ -4669,14 +4661,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7"/>
@@ -4706,13 +4698,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -4737,7 +4729,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -4768,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -4801,7 +4793,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -4832,7 +4824,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -4865,7 +4857,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -4995,7 +4987,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -5018,7 +5010,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -5027,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -5124,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5165,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -5199,14 +5191,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -5229,7 +5221,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -5239,7 +5231,7 @@
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -5273,13 +5265,13 @@
         <v>54</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -5304,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -5335,7 +5327,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -5368,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -5399,7 +5391,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -5432,7 +5424,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -5545,7 +5537,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -5569,7 +5561,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -5578,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -5680,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5707,7 +5699,7 @@
         <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -5724,7 +5716,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -5759,14 +5751,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -5790,17 +5782,17 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -5825,14 +5817,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -5857,14 +5849,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -5887,14 +5879,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
@@ -5917,23 +5909,23 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -5951,23 +5943,23 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -5995,13 +5987,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -6027,7 +6019,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -6059,7 +6051,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -6093,7 +6085,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -6125,7 +6117,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -6159,7 +6151,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -6223,35 +6215,35 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="A25" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
@@ -6259,27 +6251,27 @@
         <v>61</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -6289,14 +6281,14 @@
         <v>3</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -6305,11 +6297,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -6317,30 +6309,30 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -6349,66 +6341,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="36"/>
+      <c r="C31" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -6420,33 +6412,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -6463,6 +6428,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6500,7 +6492,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -6523,7 +6515,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -6532,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -6629,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -6671,14 +6663,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -6704,14 +6696,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -6735,14 +6727,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -6776,7 +6768,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>26</v>
@@ -6807,7 +6799,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -6840,7 +6832,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -6871,7 +6863,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -6904,7 +6896,7 @@
         <v>51</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -7016,7 +7008,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -7039,7 +7031,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -7048,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -7083,7 +7075,7 @@
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -7147,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7188,7 +7180,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -7222,14 +7214,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -7253,14 +7245,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7"/>
@@ -7282,14 +7274,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>59</v>
@@ -7315,14 +7307,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
@@ -7346,14 +7338,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
@@ -7377,14 +7369,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
@@ -7405,17 +7397,17 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
@@ -7437,14 +7429,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>59</v>
@@ -7468,14 +7460,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7"/>
@@ -7488,7 +7480,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
       <c r="N17" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O17" s="1"/>
     </row>
@@ -7498,17 +7490,17 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="7"/>
@@ -7528,14 +7520,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="7"/>
@@ -7557,14 +7549,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="7"/>
@@ -7586,14 +7578,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="7" t="s">
@@ -7615,14 +7607,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="7"/>
@@ -7635,7 +7627,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="11"/>
       <c r="N22" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O22" s="1"/>
     </row>
@@ -7646,14 +7638,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="7"/>
@@ -7666,7 +7658,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="11"/>
       <c r="N23" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -7677,14 +7669,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="7"/>
@@ -7716,7 +7708,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>26</v>
@@ -7747,7 +7739,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>26</v>
@@ -7780,7 +7772,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>26</v>
@@ -7811,7 +7803,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>26</v>
@@ -7844,7 +7836,7 @@
         <v>51</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>26</v>
@@ -7923,12 +7915,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7937,6 +7923,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7974,7 +7966,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -7997,7 +7989,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -8006,7 +7998,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -8103,7 +8095,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -8144,7 +8136,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -8208,7 +8200,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -8218,7 +8210,7 @@
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -8242,14 +8234,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -8273,14 +8265,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -8312,13 +8304,13 @@
         <v>54</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -8343,7 +8335,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -8374,7 +8366,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -8407,7 +8399,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -8438,7 +8430,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -8471,7 +8463,7 @@
         <v>51</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FF394-08AB-445E-BAE7-5EE3DC96C1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865962C-7D38-4F1C-B70F-21A989AA8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="283">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,6 +1165,10 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,10 +1478,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,12 +1526,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,12 +1533,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,27 +1548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E728D8DB-CA04-401F-A90E-01349EF3FF55}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2387,7 +2391,9 @@
       <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="F12" s="11" t="s">
         <v>53</v>
       </c>
@@ -3717,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4259,7 +4265,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4690,7 +4696,9 @@
       <c r="D16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
       </c>
@@ -4961,7 +4969,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5257,7 +5265,9 @@
       <c r="D11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="F11" s="11" t="s">
         <v>53</v>
       </c>
@@ -5509,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E54F00-D0C8-45AA-B0B2-D6923586E1DC}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5979,7 +5989,9 @@
       <c r="D16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
       </c>
@@ -6215,33 +6227,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
         <v>151</v>
       </c>
@@ -6255,10 +6267,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
         <v>153</v>
       </c>
@@ -6267,11 +6279,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -6285,10 +6297,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -6297,11 +6309,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -6309,10 +6321,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
         <v>99</v>
       </c>
@@ -6321,18 +6333,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -6341,66 +6353,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -6412,6 +6424,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -6428,33 +6467,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7915,6 +7927,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7923,12 +7941,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7940,7 +7952,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8296,7 +8308,9 @@
       <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="F13" s="11" t="s">
         <v>53</v>
       </c>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C865962C-7D38-4F1C-B70F-21A989AA8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FD7AD-9DB4-4FE3-B55D-470723E533A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="nop_sys_notice_template" sheetId="9" r:id="rId10"/>
     <sheet name="nop_sys_user_variable" sheetId="12" r:id="rId11"/>
     <sheet name="nop_sys_variable" sheetId="11" r:id="rId12"/>
+    <sheet name="nop_sys_ext_field" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="316">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,6 +1170,138 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_ext_field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extension Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kv-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL_SCALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间点值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use-ext-field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2064,7 +2197,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2137,16 +2270,18 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>315</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
@@ -2164,8 +2299,8 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -2621,7 +2756,7 @@
       <c r="O19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -2632,8 +2767,9 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,6 +3855,679 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC7BA8-B055-4817-886F-EAA68B09AC01}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>200</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K13" s="7">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7">
+        <v>8</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="7">
+        <v>200</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
@@ -4265,7 +5074,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:H26"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FD7AD-9DB4-4FE3-B55D-470723E533A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C07091-6C98-4A73-A965-E685491B9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1611,43 +1611,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1659,6 +1626,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1666,6 +1639,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1681,6 +1660,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2197,7 +2197,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4509,12 +4509,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4522,6 +4516,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7036,33 +7036,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
         <v>151</v>
       </c>
@@ -7076,10 +7076,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>153</v>
       </c>
@@ -7088,11 +7088,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -7106,10 +7106,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -7118,11 +7118,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -7130,10 +7130,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
         <v>99</v>
       </c>
@@ -7142,18 +7142,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -7162,66 +7162,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -7233,33 +7233,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -7276,6 +7249,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8736,12 +8736,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8750,6 +8744,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C07091-6C98-4A73-A965-E685491B9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A6B14-C525-41DB-9373-55628D73F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="318">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>published</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Is Parent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1302,6 +1298,18 @@
   </si>
   <si>
     <t>use-ext-field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core/enabled-locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-cascade-delete,ref-insertable,ref-updatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,10 +1619,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,12 +1667,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,12 +1674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,27 +1689,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2042,10 +2050,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2054,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2066,10 +2074,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2078,10 +2086,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -2090,10 +2098,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2102,10 +2110,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2114,10 +2122,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2126,10 +2134,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -2196,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E728D8DB-CA04-401F-A90E-01349EF3FF55}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2223,7 +2231,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2246,7 +2254,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -2255,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -2271,7 +2279,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -2354,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2395,7 +2403,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -2428,7 +2436,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>71</v>
@@ -2462,14 +2470,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -2493,14 +2501,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -2527,7 +2535,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>53</v>
@@ -2536,13 +2544,13 @@
         <v>54</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2567,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -2598,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -2631,7 +2639,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -2662,7 +2670,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -2695,7 +2703,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -2807,7 +2815,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2830,7 +2838,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -2839,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -2936,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3012,17 +3020,17 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -3046,11 +3054,11 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>23</v>
@@ -3075,14 +3083,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
@@ -3104,14 +3112,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -3143,7 +3151,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -3174,7 +3182,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -3207,7 +3215,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -3238,7 +3246,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -3271,7 +3279,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -3365,7 +3373,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -3388,7 +3396,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -3397,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -3494,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3536,14 +3544,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -3567,11 +3575,11 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>23</v>
@@ -3596,14 +3604,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7"/>
@@ -3625,14 +3633,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
@@ -3664,7 +3672,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -3695,7 +3703,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -3728,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -3759,7 +3767,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -3792,7 +3800,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -3886,7 +3894,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -3909,7 +3917,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -3918,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -3934,7 +3942,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -4017,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4059,14 +4067,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -4092,14 +4100,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -4125,11 +4133,11 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>2</v>
@@ -4156,14 +4164,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -4185,19 +4193,19 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
       <c r="J12" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4212,19 +4220,19 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
       <c r="J13" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7">
         <v>24</v>
@@ -4243,19 +4251,19 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
       <c r="J14" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -4270,14 +4278,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7"/>
@@ -4297,14 +4305,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="7"/>
@@ -4336,7 +4344,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -4367,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -4400,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -4431,7 +4439,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -4464,7 +4472,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -4509,6 +4517,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4516,12 +4530,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4545,7 +4553,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
@@ -4570,7 +4578,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>86</v>
@@ -4581,7 +4589,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
@@ -4592,7 +4600,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>87</v>
@@ -4603,7 +4611,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>88</v>
@@ -4614,7 +4622,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>89</v>
@@ -4832,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4849,11 +4857,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4864,10 +4872,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -4883,7 +4891,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -4900,7 +4908,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -4915,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -4930,7 +4938,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4947,7 +4955,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -4962,7 +4970,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -4979,13 +4987,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5100,7 +5108,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -5123,7 +5131,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -5132,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -5229,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5270,10 +5278,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
@@ -5304,7 +5312,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
@@ -5333,23 +5341,23 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>269</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -5364,14 +5372,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -5393,14 +5401,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
@@ -5422,14 +5430,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
@@ -5449,14 +5457,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
@@ -5476,14 +5484,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7"/>
@@ -5506,7 +5514,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
@@ -5515,13 +5523,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -5546,7 +5554,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -5577,7 +5585,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -5610,7 +5618,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -5641,7 +5649,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -5674,7 +5682,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -5778,7 +5786,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5804,7 +5812,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -5827,7 +5835,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -5836,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -5933,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5974,12 +5982,14 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
@@ -6008,14 +6018,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -6038,7 +6048,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -6048,7 +6058,7 @@
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -6075,7 +6085,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>53</v>
@@ -6084,13 +6094,13 @@
         <v>54</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -6115,7 +6125,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -6146,7 +6156,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -6179,7 +6189,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -6210,7 +6220,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -6243,7 +6253,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -6328,8 +6338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E54F00-D0C8-45AA-B0B2-D6923586E1DC}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6356,7 +6366,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -6380,7 +6390,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -6389,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -6491,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -6518,7 +6528,7 @@
         <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -6535,12 +6545,14 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
@@ -6570,14 +6582,16 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="F9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -6601,17 +6615,17 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -6636,14 +6650,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -6668,14 +6682,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -6698,14 +6712,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
@@ -6728,23 +6742,23 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -6762,23 +6776,23 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -6799,7 +6813,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
@@ -6808,13 +6822,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -6840,7 +6854,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -6872,7 +6886,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -6906,7 +6920,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -6938,7 +6952,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -6972,7 +6986,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -7036,35 +7050,35 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="A25" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
@@ -7072,27 +7086,27 @@
         <v>61</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -7102,14 +7116,14 @@
         <v>3</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -7118,11 +7132,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -7130,30 +7144,30 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -7162,66 +7176,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="40"/>
+      <c r="C31" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -7233,6 +7247,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -7249,33 +7290,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7287,7 +7301,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7313,7 +7327,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -7336,7 +7350,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -7345,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -7442,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7484,14 +7498,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -7517,14 +7531,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -7537,7 +7551,9 @@
         <v>50</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
@@ -7548,14 +7564,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -7589,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>26</v>
@@ -7620,7 +7636,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -7653,7 +7669,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -7684,7 +7700,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -7717,7 +7733,7 @@
         <v>51</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -7829,7 +7845,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -7852,7 +7868,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -7861,7 +7877,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -7896,7 +7912,7 @@
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -7960,7 +7976,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -8001,7 +8017,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -8035,14 +8051,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -8066,14 +8082,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7"/>
@@ -8095,14 +8111,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>59</v>
@@ -8128,14 +8144,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
@@ -8159,14 +8175,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
@@ -8190,14 +8206,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
@@ -8218,17 +8234,17 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
@@ -8250,14 +8266,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>59</v>
@@ -8281,14 +8297,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7"/>
@@ -8301,7 +8317,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
       <c r="N17" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O17" s="1"/>
     </row>
@@ -8311,17 +8327,17 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="7"/>
@@ -8341,14 +8357,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="7"/>
@@ -8370,14 +8386,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="7"/>
@@ -8399,14 +8415,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="7" t="s">
@@ -8428,14 +8444,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="7"/>
@@ -8448,7 +8464,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="11"/>
       <c r="N22" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O22" s="1"/>
     </row>
@@ -8459,14 +8475,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="7"/>
@@ -8479,7 +8495,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="11"/>
       <c r="N23" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -8490,14 +8506,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="7"/>
@@ -8529,7 +8545,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>26</v>
@@ -8560,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>26</v>
@@ -8593,7 +8609,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>26</v>
@@ -8624,7 +8640,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>26</v>
@@ -8657,7 +8673,7 @@
         <v>51</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>26</v>
@@ -8736,6 +8752,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8744,12 +8766,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8787,7 +8803,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -8810,7 +8826,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -8819,7 +8835,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -8916,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -8957,7 +8973,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>25</v>
@@ -9021,7 +9037,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -9031,7 +9047,7 @@
         <v>66</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -9055,14 +9071,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -9086,14 +9102,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -9118,7 +9134,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>53</v>
@@ -9127,13 +9143,13 @@
         <v>54</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -9158,7 +9174,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -9189,7 +9205,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -9222,7 +9238,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -9253,7 +9269,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -9286,7 +9302,7 @@
         <v>51</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A6B14-C525-41DB-9373-55628D73F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3D92E4-5504-4BC4-9BBA-8AED7974AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="nop_sys_user_variable" sheetId="12" r:id="rId11"/>
     <sheet name="nop_sys_variable" sheetId="11" r:id="rId12"/>
     <sheet name="nop_sys_ext_field" sheetId="17" r:id="rId13"/>
+    <sheet name="nop_sys_lock" sheetId="18" r:id="rId14"/>
+    <sheet name="nop_sys_leader" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="363">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,6 +1312,186 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRE_AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire At</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁的持有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLDER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holder ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK_REASON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock Reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLDER_ADDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holder Addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有者地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群选举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLUSTER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEADER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主服务器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEADER_ADDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader Addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELECT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elect Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_cluster_leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEADER_EPOCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader Epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举世代</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1619,43 +1801,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,6 +1816,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,6 +1829,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,6 +1850,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4517,12 +4699,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4530,6 +4706,933 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737EF61-6080-42BA-B548-8BC0792D7A89}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>200</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>200</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7">
+        <v>200</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="7">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>200</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5082,7 +6185,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6338,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E54F00-D0C8-45AA-B0B2-D6923586E1DC}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -7050,33 +8153,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -7090,10 +8193,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -7102,11 +8205,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -7120,10 +8223,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -7132,11 +8235,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -7144,10 +8247,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
         <v>316</v>
       </c>
@@ -7156,18 +8259,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -7176,66 +8279,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -7247,33 +8350,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -7290,6 +8366,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8752,12 +9855,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8766,6 +9863,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3D92E4-5504-4BC4-9BBA-8AED7974AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E3A0EF-2CAF-4BFE-9C22-2C7DAF2BB273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="8" activeTab="8" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1801,10 +1801,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,12 +1849,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1829,12 +1856,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,27 +1871,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4699,6 +4699,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4706,12 +4712,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5176,6 +5176,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5183,12 +5189,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5199,7 +5199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -5620,6 +5620,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5627,12 +5633,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8153,33 +8153,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -8193,10 +8193,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -8205,11 +8205,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -8223,10 +8223,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -8235,11 +8235,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -8247,10 +8247,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
         <v>316</v>
       </c>
@@ -8259,18 +8259,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8279,66 +8279,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -8350,6 +8350,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -8366,33 +8393,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9855,6 +9855,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9863,12 +9869,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9879,8 +9879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10341,7 +10341,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E3A0EF-2CAF-4BFE-9C22-2C7DAF2BB273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE368C2-4410-4E5A-B109-ECCD25AE0C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="8" activeTab="8" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="364">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,6 +1492,10 @@
   </si>
   <si>
     <t>选举世代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1801,43 +1805,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1849,6 +1820,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1856,6 +1833,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,6 +1854,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4699,12 +4703,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4712,6 +4710,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5176,12 +5180,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5189,6 +5187,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5620,12 +5624,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5633,6 +5631,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5804,8 +5808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5860,7 +5864,9 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
@@ -8153,33 +8159,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -8193,10 +8199,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -8205,11 +8211,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -8223,10 +8229,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -8235,11 +8241,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -8247,10 +8253,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
         <v>316</v>
       </c>
@@ -8259,18 +8265,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8279,66 +8285,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -8350,33 +8356,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -8393,6 +8372,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9855,12 +9861,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9869,6 +9869,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9879,7 +9885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE368C2-4410-4E5A-B109-ECCD25AE0C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695A570-DE8B-440B-A93B-FF89B25FC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="365">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1496,6 +1496,10 @@
   </si>
   <si>
     <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1805,10 +1809,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,12 +1857,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,12 +1864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,27 +1879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4053,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC7BA8-B055-4817-886F-EAA68B09AC01}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4284,7 +4288,9 @@
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="D9" s="11" t="s">
         <v>291</v>
       </c>
@@ -4703,6 +4709,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4710,12 +4722,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5180,6 +5186,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5187,12 +5199,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5624,6 +5630,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5631,12 +5643,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5808,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -8159,33 +8165,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -8199,10 +8205,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -8211,11 +8217,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -8229,10 +8235,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -8241,11 +8247,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -8253,10 +8259,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
         <v>316</v>
       </c>
@@ -8265,18 +8271,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8285,66 +8291,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -8356,6 +8362,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -8372,33 +8405,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9861,6 +9867,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9869,12 +9881,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695A570-DE8B-440B-A93B-FF89B25FC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD73695-66C5-45ED-8789-76E199601282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="9" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1809,43 +1809,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,6 +1824,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,6 +1837,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,6 +1858,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4057,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC7BA8-B055-4817-886F-EAA68B09AC01}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4709,12 +4709,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4722,6 +4716,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5186,12 +5186,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5199,6 +5193,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5630,12 +5630,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5643,6 +5637,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8165,33 +8165,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -8205,10 +8205,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -8217,11 +8217,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -8235,10 +8235,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -8247,11 +8247,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -8259,10 +8259,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
         <v>316</v>
       </c>
@@ -8271,18 +8271,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8291,66 +8291,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -8362,33 +8362,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -8405,6 +8378,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8415,8 +8415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8630,7 +8630,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="11"/>
@@ -8663,7 +8663,7 @@
         <v>27</v>
       </c>
       <c r="K9" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="11" t="s">
@@ -9867,12 +9867,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9881,6 +9875,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD73695-66C5-45ED-8789-76E199601282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCEED0-1A89-4E92-8150-DA9BBB9051D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -951,10 +951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nop_sys_maker_checker_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1500,6 +1496,10 @@
   </si>
   <si>
     <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_checker_record</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1809,10 +1809,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,12 +1857,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,12 +1864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,27 +1879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2469,7 +2469,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>71</v>
@@ -2725,7 +2725,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>53</v>
@@ -2734,13 +2734,13 @@
         <v>54</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2765,7 +2765,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -2796,7 +2796,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -2829,7 +2829,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -2860,7 +2860,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -2893,7 +2893,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -3134,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3210,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>191</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>200</v>
@@ -3341,7 +3341,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -3372,7 +3372,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -3405,7 +3405,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -3436,7 +3436,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -3469,7 +3469,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -3692,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>200</v>
@@ -3862,7 +3862,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -3893,7 +3893,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -3926,7 +3926,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -3957,7 +3957,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -3990,7 +3990,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -4084,7 +4084,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -4107,7 +4107,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -4132,7 +4132,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -4215,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4257,14 +4257,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -4289,17 +4289,17 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>2</v>
@@ -4356,14 +4356,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -4385,19 +4385,19 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
       <c r="J12" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4412,19 +4412,19 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
       <c r="J13" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7">
         <v>24</v>
@@ -4443,19 +4443,19 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
       <c r="J14" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -4470,14 +4470,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7"/>
@@ -4497,14 +4497,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="7"/>
@@ -4536,7 +4536,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -4567,7 +4567,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -4600,7 +4600,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -4631,7 +4631,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -4664,7 +4664,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -4709,6 +4709,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4716,12 +4722,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4759,7 +4759,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -4782,7 +4782,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -4888,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4930,14 +4930,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -4994,14 +4994,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -5023,14 +5023,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -5052,14 +5052,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -5081,14 +5081,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
@@ -5112,14 +5112,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
@@ -5143,14 +5143,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
@@ -5186,6 +5186,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5193,12 +5199,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,7 +5236,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -5259,7 +5259,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -5268,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5407,14 +5407,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -5438,14 +5438,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -5469,14 +5469,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -5500,14 +5500,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -5529,14 +5529,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
@@ -5558,14 +5558,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
@@ -5587,14 +5587,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
@@ -5630,6 +5630,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5637,12 +5643,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5666,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
@@ -5724,7 +5724,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>88</v>
@@ -5871,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -5955,7 +5955,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5987,10 +5987,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -6006,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -6023,7 +6023,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -6038,7 +6038,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -6053,7 +6053,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -6070,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -6085,7 +6085,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -6102,13 +6102,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6352,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -6393,7 +6393,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>125</v>
@@ -6456,14 +6456,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>221</v>
@@ -6472,7 +6472,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -6487,14 +6487,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
@@ -6516,11 +6516,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>127</v>
@@ -6545,11 +6545,11 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>128</v>
@@ -6629,7 +6629,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
@@ -6638,13 +6638,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -6669,7 +6669,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -6700,7 +6700,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -6733,7 +6733,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -6764,7 +6764,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -6797,7 +6797,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -7056,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7103,7 +7103,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>25</v>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -7200,7 +7200,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>53</v>
@@ -7209,13 +7209,13 @@
         <v>54</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -7240,7 +7240,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -7271,7 +7271,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -7304,7 +7304,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -7335,7 +7335,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -7368,7 +7368,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -7616,7 +7616,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7643,7 +7643,7 @@
         <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -7666,7 +7666,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>25</v>
@@ -7700,7 +7700,7 @@
         <v>149</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>130</v>
@@ -7730,14 +7730,14 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>113</v>
@@ -7873,7 +7873,7 @@
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -7907,7 +7907,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -7928,7 +7928,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
@@ -7937,13 +7937,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -7969,7 +7969,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -8001,7 +8001,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>
@@ -8035,7 +8035,7 @@
         <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
@@ -8067,7 +8067,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
@@ -8101,7 +8101,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -8165,33 +8165,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -8205,10 +8205,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -8217,11 +8217,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -8235,10 +8235,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -8247,11 +8247,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -8259,30 +8259,30 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8291,66 +8291,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -8362,6 +8362,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -8378,33 +8405,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8415,7 +8415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -8571,7 +8571,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
@@ -8720,7 +8720,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>26</v>
@@ -8751,7 +8751,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>26</v>
@@ -8784,7 +8784,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>26</v>
@@ -8815,7 +8815,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -8848,7 +8848,7 @@
         <v>51</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -8933,8 +8933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8960,7 +8960,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>227</v>
+        <v>364</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -9091,7 +9091,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -9233,7 +9233,7 @@
         <v>169</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>59</v>
@@ -9266,7 +9266,7 @@
         <v>168</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
@@ -9388,7 +9388,7 @@
         <v>177</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>59</v>
@@ -9419,7 +9419,7 @@
         <v>178</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7"/>
@@ -9445,14 +9445,14 @@
         <v>223</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="7"/>
@@ -9472,14 +9472,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="7"/>
@@ -9501,14 +9501,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="7"/>
@@ -9530,14 +9530,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="7" t="s">
@@ -9590,14 +9590,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="7"/>
@@ -9610,7 +9610,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="11"/>
       <c r="N23" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -9621,14 +9621,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="7"/>
@@ -9660,7 +9660,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>26</v>
@@ -9691,7 +9691,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>26</v>
@@ -9724,7 +9724,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>26</v>
@@ -9755,7 +9755,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>26</v>
@@ -9788,7 +9788,7 @@
         <v>51</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>26</v>
@@ -9867,6 +9867,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9875,12 +9881,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10047,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>65</v>
@@ -10221,10 +10221,10 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
@@ -10249,7 +10249,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>53</v>
@@ -10258,13 +10258,13 @@
         <v>54</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -10289,7 +10289,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>26</v>
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>26</v>
@@ -10353,7 +10353,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
@@ -10384,7 +10384,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
@@ -10417,7 +10417,7 @@
         <v>51</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>26</v>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCEED0-1A89-4E92-8150-DA9BBB9051D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1BFB4-5716-45CA-8B5A-A61577CC3D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="8" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="366">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,6 +1500,10 @@
   </si>
   <si>
     <t>nop_sys_checker_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1809,43 +1813,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,6 +1828,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,6 +1841,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,6 +1862,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2202,14 +2206,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2247,7 +2251,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2259,7 +2263,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2271,7 +2275,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2283,7 +2287,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2295,7 +2299,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2307,7 +2311,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2319,7 +2323,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2331,43 +2335,43 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2398,23 +2402,23 @@
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2441,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2466,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -2483,7 +2487,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2506,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -2519,7 +2523,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2542,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2620,7 +2624,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -2653,7 +2657,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -2684,7 +2688,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -2779,7 +2783,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -2812,7 +2816,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -2907,7 +2911,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -2936,7 +2940,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2982,23 +2986,23 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3025,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3050,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +3069,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -3084,7 +3088,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -3101,7 +3105,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3124,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3202,7 +3206,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3237,7 +3241,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3295,7 +3299,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3324,7 +3328,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3355,7 +3359,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -3419,7 +3423,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -3452,7 +3456,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -3483,7 +3487,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -3537,26 +3541,26 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A12" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -3579,7 +3583,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -3604,7 +3608,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3627,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +3646,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -3659,7 +3663,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -3678,7 +3682,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3758,7 +3762,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3787,7 +3791,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3816,7 +3820,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3845,7 +3849,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3876,7 +3880,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3909,7 +3913,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -3940,7 +3944,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -3973,7 +3977,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4061,23 +4065,23 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -4100,7 +4104,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -4125,7 +4129,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -4146,7 +4150,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -4165,7 +4169,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4182,7 +4186,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -4201,7 +4205,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4281,7 +4285,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4316,7 +4320,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4349,7 +4353,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4378,7 +4382,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4405,7 +4409,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4463,7 +4467,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -4490,7 +4494,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4550,7 +4554,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -4583,7 +4587,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -4614,7 +4618,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -4647,7 +4651,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -4678,7 +4682,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -4709,12 +4713,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4722,6 +4720,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4730,29 +4734,29 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737EF61-6080-42BA-B548-8BC0792D7A89}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4779,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -4800,7 +4804,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -4819,7 +4823,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -4838,7 +4842,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4855,7 +4859,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -4874,7 +4878,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4930,14 +4934,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -4954,7 +4958,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4963,14 +4967,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -4987,12 +4991,14 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="D10" s="11" t="s">
         <v>326</v>
       </c>
@@ -5016,12 +5022,14 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="D11" s="11" t="s">
         <v>329</v>
       </c>
@@ -5045,7 +5053,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5074,7 +5082,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5105,7 +5113,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5136,7 +5144,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -5167,31 +5175,184 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="11"/>
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5199,6 +5360,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5213,23 +5380,23 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +5419,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +5444,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -5296,7 +5463,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -5315,7 +5482,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5332,7 +5499,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -5351,7 +5518,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -5398,7 +5565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5431,7 +5598,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -5462,7 +5629,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5493,7 +5660,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5522,7 +5689,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5551,7 +5718,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5580,7 +5747,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5611,7 +5778,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5630,12 +5797,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5643,6 +5804,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5657,14 +5824,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>278</v>
       </c>
@@ -5675,7 +5842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -5686,7 +5853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -5697,7 +5864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5708,7 +5875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
@@ -5719,7 +5886,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -5730,7 +5897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -5741,7 +5908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -5752,7 +5919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -5763,7 +5930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -5774,32 +5941,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5818,12 +5985,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -5846,7 +6013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5863,7 +6030,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -5882,7 +6049,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -5899,7 +6066,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -5916,7 +6083,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -5933,7 +6100,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -5950,7 +6117,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -5967,7 +6134,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -5982,7 +6149,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -6001,7 +6168,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -6018,7 +6185,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -6033,7 +6200,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -6048,7 +6215,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -6065,7 +6232,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -6080,7 +6247,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -6097,7 +6264,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -6114,7 +6281,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6123,7 +6290,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6132,7 +6299,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6141,7 +6308,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6150,7 +6317,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6159,7 +6326,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6168,7 +6335,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6177,7 +6344,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6200,23 +6367,23 @@
       <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6406,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -6264,7 +6431,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -6283,7 +6450,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -6302,7 +6469,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -6319,7 +6486,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -6338,7 +6505,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -6385,7 +6552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -6420,7 +6587,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -6449,7 +6616,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -6480,7 +6647,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -6509,7 +6676,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -6538,7 +6705,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -6565,7 +6732,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -6592,7 +6759,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -6619,7 +6786,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -6652,7 +6819,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -6683,7 +6850,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -6716,7 +6883,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -6747,7 +6914,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -6780,7 +6947,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -6811,7 +6978,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -6840,7 +7007,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6857,13 +7024,13 @@
       <c r="N23" s="7"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>77</v>
       </c>
@@ -6904,23 +7071,23 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +7110,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -6968,7 +7135,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -6987,7 +7154,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -7006,7 +7173,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -7023,7 +7190,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -7042,7 +7209,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7089,7 +7256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -7126,7 +7293,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -7157,7 +7324,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -7190,7 +7357,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -7223,7 +7390,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -7254,7 +7421,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -7287,7 +7454,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -7318,7 +7485,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -7351,7 +7518,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -7382,7 +7549,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -7411,7 +7578,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -7457,24 +7624,24 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -7498,7 +7665,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -7524,7 +7691,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -7544,7 +7711,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -7564,7 +7731,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -7582,7 +7749,7 @@
       <c r="O5" s="31"/>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -7602,7 +7769,7 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7652,7 +7819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -7690,7 +7857,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -7724,7 +7891,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -7758,7 +7925,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -7790,7 +7957,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -7820,7 +7987,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -7850,7 +8017,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -7884,7 +8051,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -7918,7 +8085,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -7952,7 +8119,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -7984,7 +8151,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -8018,7 +8185,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -8050,7 +8217,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -8084,7 +8251,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -8116,7 +8283,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -8146,7 +8313,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8164,34 +8331,34 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -8205,10 +8372,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -8216,12 +8383,12 @@
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -8235,10 +8402,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -8246,12 +8413,12 @@
       <c r="O27" s="28"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -8259,10 +8426,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
         <v>315</v>
       </c>
@@ -8270,19 +8437,19 @@
       <c r="O28" s="28"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8290,67 +8457,67 @@
       <c r="O29" s="8"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -8362,33 +8529,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -8405,6 +8545,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8419,23 +8586,23 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8458,7 +8625,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -8483,7 +8650,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -8502,7 +8669,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -8521,7 +8688,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -8538,7 +8705,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -8557,7 +8724,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -8604,7 +8771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -8637,7 +8804,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -8672,7 +8839,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -8703,7 +8870,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -8734,7 +8901,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -8767,7 +8934,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -8798,7 +8965,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -8831,7 +8998,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -8862,7 +9029,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -8891,7 +9058,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8933,27 +9100,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8976,7 +9143,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -9001,7 +9168,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -9020,7 +9187,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -9041,7 +9208,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -9058,7 +9225,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -9077,7 +9244,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -9124,7 +9291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -9159,7 +9326,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -9190,7 +9357,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -9219,7 +9386,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -9252,7 +9419,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -9283,7 +9450,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -9314,7 +9481,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -9343,7 +9510,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -9374,7 +9541,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -9405,7 +9572,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -9436,7 +9603,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -9465,7 +9632,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -9494,7 +9661,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -9523,7 +9690,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -9552,7 +9719,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -9583,7 +9750,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>16</v>
       </c>
@@ -9614,7 +9781,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>17</v>
       </c>
@@ -9643,7 +9810,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -9674,7 +9841,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>19</v>
       </c>
@@ -9707,7 +9874,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -9738,7 +9905,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>21</v>
       </c>
@@ -9771,7 +9938,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>22</v>
       </c>
@@ -9802,7 +9969,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>23</v>
       </c>
@@ -9831,7 +9998,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -9848,7 +10015,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -9867,12 +10034,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9881,6 +10042,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9895,23 +10062,23 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -9934,7 +10101,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -9959,7 +10126,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -9978,7 +10145,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -9997,7 +10164,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -10014,7 +10181,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
@@ -10033,7 +10200,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -10080,7 +10247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -10115,7 +10282,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -10146,7 +10313,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -10179,7 +10346,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -10210,7 +10377,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -10239,7 +10406,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -10272,7 +10439,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -10303,7 +10470,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -10336,7 +10503,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -10367,7 +10534,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -10400,7 +10567,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -10431,7 +10598,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -10460,7 +10627,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1BFB4-5716-45CA-8B5A-A61577CC3D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B438D9-05FA-40A6-B271-B73DC3C12652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="8" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="nop_sys_ext_field" sheetId="17" r:id="rId13"/>
     <sheet name="nop_sys_lock" sheetId="18" r:id="rId14"/>
     <sheet name="nop_sys_leader" sheetId="19" r:id="rId15"/>
+    <sheet name="nop_sys_event" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="400">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1504,6 +1505,142 @@
   </si>
   <si>
     <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_event_queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_TOPIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_HEADERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTITION_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biz Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4736,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737EF61-6080-42BA-B548-8BC0792D7A89}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5810,6 +5947,704 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="7">
+        <v>50</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B438D9-05FA-40A6-B271-B73DC3C12652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151687D-CF5E-4A0C-A59B-B885D472D6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="412">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1516,10 +1516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nop_sys_event_queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EVENT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1641,6 +1637,58 @@
   </si>
   <si>
     <t>业务日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFRESH_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将处理时间设置为未来时间可以实现延迟发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizObjName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1950,10 +1998,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,12 +2046,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,12 +2053,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1999,27 +2068,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4850,6 +4898,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4857,12 +4911,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4874,7 +4922,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5490,6 +5538,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5497,12 +5551,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5511,10 +5559,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5831,7 +5879,9 @@
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D12" s="11" t="s">
         <v>354</v>
       </c>
@@ -5860,7 +5910,9 @@
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D13" s="11" t="s">
         <v>329</v>
       </c>
@@ -5889,51 +5941,119 @@
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D14" s="11" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="7">
-        <v>100</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="11"/>
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="11"/>
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5941,12 +6061,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5955,10 +6069,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5984,7 +6098,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -6157,14 +6271,14 @@
         <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -6186,14 +6300,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -6217,14 +6331,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -6248,21 +6362,21 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7">
         <v>4000</v>
@@ -6279,21 +6393,21 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K12" s="7">
         <v>4000</v>
@@ -6312,14 +6426,14 @@
         <v>223</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
@@ -6336,28 +6450,26 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -6367,59 +6479,61 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>223</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>388</v>
+        <v>210</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>390</v>
+        <v>211</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K16" s="7">
+        <v>100</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="11"/>
       <c r="N16" s="7"/>
@@ -6427,28 +6541,28 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
       <c r="N17" s="7"/>
@@ -6456,28 +6570,28 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D18" s="11" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>250</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -6487,32 +6601,28 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>252</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="11"/>
       <c r="N19" s="7"/>
@@ -6520,28 +6630,28 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -6551,22 +6661,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
@@ -6584,22 +6694,22 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>26</v>
@@ -6614,30 +6724,88 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="F23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="7">
+        <v>50</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="11"/>
       <c r="N23" s="7"/>
       <c r="O23" s="1"/>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -6645,6 +6813,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9167,33 +9341,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -9207,10 +9381,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -9219,11 +9393,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -9237,10 +9411,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -9249,11 +9423,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -9261,10 +9435,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
         <v>315</v>
       </c>
@@ -9273,18 +9447,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -9293,66 +9467,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -9364,6 +9538,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -9380,33 +9581,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10869,6 +11043,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -10877,12 +11057,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151687D-CF5E-4A0C-A59B-B885D472D6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26E6346-7303-4329-A53F-AE6B4486E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="415">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1689,6 +1689,18 @@
   </si>
   <si>
     <t>应用名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Selections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1998,43 +2010,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,6 +2025,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,6 +2038,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,6 +2059,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4898,12 +4910,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -4911,6 +4917,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5538,12 +5550,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5551,6 +5557,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5561,7 +5573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6048,12 +6060,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -6061,6 +6067,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6069,10 +6081,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6422,27 +6434,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1000</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="11"/>
       <c r="N13" s="7"/>
@@ -6450,26 +6460,28 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D14" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -6479,81 +6491,81 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="7" t="s">
-        <v>403</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D16" s="11" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="7">
-        <v>100</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>407</v>
+        <v>211</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7"/>
@@ -6561,7 +6573,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
@@ -6570,30 +6582,28 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11"/>
       <c r="N18" s="7"/>
@@ -6601,26 +6611,28 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D19" s="11" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -6630,23 +6642,21 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>250</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
@@ -6661,32 +6671,30 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="7">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="11"/>
       <c r="N21" s="7"/>
@@ -6694,30 +6702,32 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K22" s="7">
+        <v>50</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="11"/>
       <c r="N22" s="7"/>
@@ -6725,32 +6735,30 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="7">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="11"/>
       <c r="N23" s="7"/>
@@ -6758,54 +6766,93 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="7">
         <v>50</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="11"/>
       <c r="N24" s="7"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
       <c r="N25" s="7"/>
       <c r="O25" s="1"/>
     </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -6813,12 +6860,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9341,33 +9382,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="52">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -9381,10 +9422,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -9393,11 +9434,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -9411,10 +9452,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -9423,11 +9464,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -9435,10 +9476,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="27" t="s">
         <v>315</v>
       </c>
@@ -9447,18 +9488,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -9467,66 +9508,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -9538,33 +9579,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -9581,6 +9595,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11043,12 +11084,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -11057,6 +11092,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26E6346-7303-4329-A53F-AE6B4486E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D183C5-3C8C-463F-B666-C62EB5E80924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="426">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1701,6 +1701,50 @@
   </si>
   <si>
     <t>字段选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETRY_TIMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq-default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_BROADCAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Broadcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6081,10 +6125,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6280,7 +6324,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>368</v>
@@ -6558,23 +6602,23 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>211</v>
+        <v>420</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7">
-        <v>100</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
       <c r="N17" s="7"/>
@@ -6587,23 +6631,23 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="7">
-        <v>50</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="11"/>
       <c r="N18" s="7"/>
@@ -6614,27 +6658,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>397</v>
+        <v>210</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K19" s="7">
+        <v>100</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="11"/>
       <c r="N19" s="7"/>
@@ -6647,23 +6689,23 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="11"/>
       <c r="N20" s="7"/>
@@ -6674,25 +6716,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" s="11" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>250</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -6707,27 +6749,23 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>252</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="7">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="11"/>
       <c r="N22" s="7"/>
@@ -6740,23 +6778,21 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>42</v>
+        <v>417</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>251</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="H23" s="11"/>
       <c r="I23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -6771,27 +6807,25 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="7">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="11"/>
       <c r="N24" s="7"/>
@@ -6804,46 +6838,143 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="7">
         <v>50</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
       <c r="N25" s="7"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="F26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="11"/>
       <c r="N26" s="7"/>
       <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="7">
+        <v>50</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D183C5-3C8C-463F-B666-C62EB5E80924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96F92F-0551-4D89-A94C-D3C6A1EDDFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="16" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="nop_sys_lock" sheetId="18" r:id="rId14"/>
     <sheet name="nop_sys_leader" sheetId="19" r:id="rId15"/>
     <sheet name="nop_sys_event" sheetId="20" r:id="rId16"/>
+    <sheet name="nop_sys_service_instance" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="461">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,6 +1746,146 @@
   </si>
   <si>
     <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_service_instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVICE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLUSTER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAGS_TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>META_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_PORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_HEALTHY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Healthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_EPHEMERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Ephemeral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否临时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4303,7 +4444,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4978,7 +5119,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6127,7 +6268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -6975,6 +7116,694 @@
       <c r="M29" s="11"/>
       <c r="N29" s="7"/>
       <c r="O29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCAC3DE-314B-4CC5-902D-45CF16059DFE}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>20</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96F92F-0551-4D89-A94C-D3C6A1EDDFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E8640-2300-4AD1-AD19-C314AE543E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="16" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -2195,10 +2195,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,12 +2243,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2223,12 +2250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2244,27 +2265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5095,6 +5095,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -5102,12 +5108,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5735,6 +5735,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -5742,12 +5748,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6245,6 +6245,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -6252,12 +6258,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6268,8 +6268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7119,12 +7119,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7132,6 +7126,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7142,7 +7142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCAC3DE-314B-4CC5-902D-45CF16059DFE}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -7807,12 +7807,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7820,6 +7814,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10342,33 +10342,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="30" t="s">
         <v>150</v>
       </c>
@@ -10382,10 +10382,10 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -10394,11 +10394,11 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="30" t="s">
         <v>34</v>
       </c>
@@ -10412,10 +10412,10 @@
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
@@ -10424,11 +10424,11 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -10436,10 +10436,10 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="35"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="27" t="s">
         <v>315</v>
       </c>
@@ -10448,18 +10448,18 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -10468,66 +10468,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="30"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="30"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -10539,6 +10539,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -10555,33 +10582,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12044,6 +12044,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -12052,12 +12058,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E8640-2300-4AD1-AD19-C314AE543E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D2440-A658-4460-8F43-9A0C66DB5949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
-    <sheet name="nop_sys_sequence" sheetId="1" r:id="rId4"/>
-    <sheet name="nop_sys_dict" sheetId="4" r:id="rId5"/>
-    <sheet name="nop_sys_dict_option" sheetId="16" r:id="rId6"/>
-    <sheet name="nop_sys_i18n" sheetId="6" r:id="rId7"/>
-    <sheet name="nop_sys_check_record" sheetId="7" r:id="rId8"/>
-    <sheet name="nop_sys_code_rule" sheetId="8" r:id="rId9"/>
-    <sheet name="nop_sys_notice_template" sheetId="9" r:id="rId10"/>
-    <sheet name="nop_sys_user_variable" sheetId="12" r:id="rId11"/>
-    <sheet name="nop_sys_variable" sheetId="11" r:id="rId12"/>
-    <sheet name="nop_sys_ext_field" sheetId="17" r:id="rId13"/>
-    <sheet name="nop_sys_lock" sheetId="18" r:id="rId14"/>
-    <sheet name="nop_sys_leader" sheetId="19" r:id="rId15"/>
-    <sheet name="nop_sys_event" sheetId="20" r:id="rId16"/>
-    <sheet name="nop_sys_service_instance" sheetId="21" r:id="rId17"/>
+    <sheet name="字典定义" sheetId="22" r:id="rId4"/>
+    <sheet name="nop_sys_sequence" sheetId="1" r:id="rId5"/>
+    <sheet name="nop_sys_dict" sheetId="4" r:id="rId6"/>
+    <sheet name="nop_sys_dict_option" sheetId="16" r:id="rId7"/>
+    <sheet name="nop_sys_i18n" sheetId="6" r:id="rId8"/>
+    <sheet name="nop_sys_check_record" sheetId="7" r:id="rId9"/>
+    <sheet name="nop_sys_code_rule" sheetId="8" r:id="rId10"/>
+    <sheet name="nop_sys_notice_template" sheetId="9" r:id="rId11"/>
+    <sheet name="nop_sys_user_variable" sheetId="12" r:id="rId12"/>
+    <sheet name="nop_sys_variable" sheetId="11" r:id="rId13"/>
+    <sheet name="nop_sys_ext_field" sheetId="17" r:id="rId14"/>
+    <sheet name="nop_sys_lock" sheetId="18" r:id="rId15"/>
+    <sheet name="nop_sys_leader" sheetId="19" r:id="rId16"/>
+    <sheet name="nop_sys_event" sheetId="20" r:id="rId17"/>
+    <sheet name="nop_sys_service_instance" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="485">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1513,10 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Event Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EVENT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1887,13 +1884,112 @@
   <si>
     <t>是否临时</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAITING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已超时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys Event Status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过多次尝试后仍然处理失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys/sys-event-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core/sys-event-status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,8 +2022,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1976,8 +2085,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EEDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2083,6 +2204,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2092,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,6 +2290,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2183,15 +2380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2202,12 +2390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,6 +2959,616 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="7">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="7">
+        <v>50</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="7">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E728D8DB-CA04-401F-A90E-01349EF3FF55}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -2801,128 +3593,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3360,7 +4152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C953A90D-FDF2-4D86-8069-3DE5D3B98F32}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -3385,63 +4177,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3452,59 +4244,59 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3918,7 +4710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AC8471-48F5-46E8-B6A0-736F600785E1}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -3943,63 +4735,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4010,59 +4802,59 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4439,7 +5231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC7BA8-B055-4817-886F-EAA68B09AC01}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -4464,128 +5256,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5114,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737EF61-6080-42BA-B548-8BC0792D7A89}">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -5139,126 +5931,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5754,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -5779,126 +6571,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6142,14 +6934,14 @@
         <v>223</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
@@ -6178,7 +6970,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>250</v>
@@ -6202,14 +6994,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="7" t="s">
@@ -6264,12 +7056,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6289,126 +7081,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6465,17 +7257,17 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -6497,14 +7289,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -6528,14 +7320,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -6559,21 +7351,21 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7">
         <v>4000</v>
@@ -6590,21 +7382,21 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K12" s="7">
         <v>4000</v>
@@ -6621,14 +7413,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
@@ -6652,14 +7444,14 @@
         <v>223</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
@@ -6681,14 +7473,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>389</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
@@ -6699,7 +7491,9 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="11"/>
+      <c r="M15" s="11" t="s">
+        <v>482</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
@@ -6712,14 +7506,14 @@
         <v>223</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="7" t="s">
@@ -6732,7 +7526,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="11"/>
       <c r="N16" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -6743,14 +7537,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>420</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7" t="s">
@@ -6772,21 +7566,21 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>423</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -6805,7 +7599,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>211</v>
@@ -6830,14 +7624,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="7"/>
@@ -6861,14 +7655,14 @@
         <v>223</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="7" t="s">
@@ -6890,14 +7684,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>392</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="7" t="s">
@@ -6919,14 +7713,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="7" t="s">
@@ -7138,7 +7932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCAC3DE-314B-4CC5-902D-45CF16059DFE}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -7163,126 +7957,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -7342,14 +8136,14 @@
         <v>363</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -7373,14 +8167,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -7404,14 +8198,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -7439,7 +8233,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>140</v>
@@ -7466,11 +8260,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>9</v>
@@ -7497,14 +8291,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
@@ -7528,14 +8322,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
@@ -7557,14 +8351,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
@@ -7586,14 +8380,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>442</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="7"/>
@@ -7615,21 +8409,21 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -7644,21 +8438,21 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -7673,21 +8467,21 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -8370,6 +9164,201 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A5687-07D7-46DA-AED3-DF2ECCEC6445}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28">
+        <v>1</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>10</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="22">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27">
+        <v>20</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="22">
+        <v>4</v>
+      </c>
+      <c r="C9" s="27">
+        <v>30</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:O26"/>
   <sheetViews>
@@ -8394,126 +9383,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9041,15 +10030,15 @@
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:15" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9073,7 +10062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB46D70-201F-4E06-8B69-C568135C86D7}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -9098,126 +10087,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9626,7 +10615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E54F00-D0C8-45AA-B0B2-D6923586E1DC}">
   <dimension ref="A1:P32"/>
   <sheetViews>
@@ -9652,132 +10641,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="19"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="19"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="18"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -10342,50 +11331,50 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="28">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="41" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="42"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -10394,72 +11383,72 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="41" t="s">
+      <c r="I27" s="35"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="27" t="s">
+      <c r="L27" s="58"/>
+      <c r="M27" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="41" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="27" t="s">
+      <c r="L28" s="58"/>
+      <c r="M28" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -10468,66 +11457,66 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="62"/>
+      <c r="E30" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="73"/>
+      <c r="G30" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="58"/>
+      <c r="I30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="65"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="34" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -10588,7 +11577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -10613,126 +11602,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -11106,12 +12095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11131,128 +12120,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -12026,21 +13015,21 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="32"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -12062,614 +13051,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7">
-        <v>100</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="7">
-        <v>100</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7">
-        <v>200</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="7">
-        <v>100</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="7">
-        <v>50</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7">
-        <v>50</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:O5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D2440-A658-4460-8F43-9A0C66DB5949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31150D11-C4EC-402C-8DEA-516A5317A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="16" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1973,16 +1973,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys/sys-event-status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>System Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>core/sys-event-status</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>core/sys-event-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2383,37 +2383,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2425,6 +2398,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2432,6 +2411,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2447,6 +2432,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5887,12 +5887,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -5900,6 +5894,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6527,12 +6527,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -6540,6 +6534,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7037,12 +7037,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7050,6 +7044,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7060,8 +7060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7119,7 +7119,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -7492,7 +7492,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
@@ -7913,6 +7913,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7920,12 +7926,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8601,6 +8601,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8608,12 +8614,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9167,7 +9167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A5687-07D7-46DA-AED3-DF2ECCEC6445}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E1" s="34"/>
       <c r="F1" s="21" t="s">
@@ -11331,33 +11331,33 @@
       <c r="P23" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="66"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>1</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="33" t="s">
         <v>150</v>
       </c>
@@ -11371,10 +11371,10 @@
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="34"/>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="58"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="33" t="s">
         <v>34</v>
       </c>
@@ -11401,10 +11401,10 @@
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="34"/>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="58"/>
+      <c r="L27" s="53"/>
       <c r="M27" s="48" t="s">
         <v>79</v>
       </c>
@@ -11414,10 +11414,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="33"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -11425,10 +11425,10 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="48" t="s">
         <v>315</v>
       </c>
@@ -11438,17 +11438,17 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -11461,62 +11461,62 @@
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="72" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="57" t="s">
+      <c r="F30" s="68"/>
+      <c r="G30" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="57" t="s">
+      <c r="H30" s="53"/>
+      <c r="I30" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="65"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="60"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -11528,33 +11528,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -11571,6 +11544,33 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13033,12 +13033,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -13047,6 +13041,12 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31150D11-C4EC-402C-8DEA-516A5317A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50930A05-AD58-4762-B2A0-AB2A2F84B02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="16" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="15" activeTab="18" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="nop_sys_leader" sheetId="19" r:id="rId16"/>
     <sheet name="nop_sys_event" sheetId="20" r:id="rId17"/>
     <sheet name="nop_sys_service_instance" sheetId="21" r:id="rId18"/>
+    <sheet name="nop_sys_change_log" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="551">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1983,13 +1984,254 @@
   <si>
     <t>core/sys-event-status</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>nop_sys_change_log</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象名</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>变更跟踪日志</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>Change Log</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>业务对象变更日志</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段列表</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>数据域</t>
+  </si>
+  <si>
+    <t>非空</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>小数位数</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>缺省值</t>
+  </si>
+  <si>
+    <t>扩展配置</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>BIZ_OBJ_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizObjName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务对象</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJ_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_KEY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizKey</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATION_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务操作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLD_VALUE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE_TIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>App ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operator ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVER_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approver ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2035,8 +2277,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2095,6 +2352,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EEDA"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2226,7 +2495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2309,6 +2578,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,6 +2729,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2770,14 +3063,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="2" max="3" width="19.53125" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2791,7 +3084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2803,7 +3096,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2815,7 +3108,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2827,7 +3120,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2839,7 +3132,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2851,7 +3144,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2863,7 +3156,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2875,7 +3168,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2887,7 +3180,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2899,43 +3192,43 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2966,80 +3259,80 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3049,62 +3342,62 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3151,7 +3444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3186,7 +3479,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3217,7 +3510,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3250,7 +3543,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3281,7 +3574,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3310,7 +3603,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3343,7 +3636,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -3374,7 +3667,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -3407,7 +3700,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -3438,7 +3731,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -3471,7 +3764,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -3502,7 +3795,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -3531,7 +3824,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3576,147 +3869,147 @@
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="34"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3763,7 +4056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3798,7 +4091,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3831,7 +4124,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3862,7 +4155,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3893,7 +4186,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3926,7 +4219,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3957,7 +4250,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -3990,7 +4283,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -4021,7 +4314,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4054,7 +4347,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4085,7 +4378,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -4114,7 +4407,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4160,80 +4453,80 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4243,62 +4536,62 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4345,7 +4638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4380,7 +4673,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4415,7 +4708,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4444,7 +4737,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4473,7 +4766,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4502,7 +4795,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4533,7 +4826,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4566,7 +4859,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -4597,7 +4890,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4630,7 +4923,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4661,7 +4954,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -4718,80 +5011,80 @@
       <selection activeCell="A12" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4801,62 +5094,62 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4903,7 +5196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4936,7 +5229,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4965,7 +5258,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4994,7 +5287,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5023,7 +5316,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5054,7 +5347,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5087,7 +5380,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5118,7 +5411,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -5151,7 +5444,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -5182,7 +5475,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -5239,147 +5532,147 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="34"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -5426,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5459,7 +5752,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -5494,7 +5787,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5527,7 +5820,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5556,7 +5849,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5583,7 +5876,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5614,7 +5907,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5641,7 +5934,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -5668,7 +5961,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -5697,7 +5990,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -5728,7 +6021,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -5761,7 +6054,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -5792,7 +6085,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -5825,7 +6118,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -5856,7 +6149,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -5914,145 +6207,145 @@
       <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -6099,7 +6392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -6132,7 +6425,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -6165,7 +6458,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -6196,7 +6489,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -6227,7 +6520,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -6256,7 +6549,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -6287,7 +6580,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -6318,7 +6611,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -6349,7 +6642,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -6380,7 +6673,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -6413,7 +6706,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -6444,7 +6737,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -6477,7 +6770,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -6508,7 +6801,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6554,145 +6847,145 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -6739,7 +7032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -6772,7 +7065,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -6803,7 +7096,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -6834,7 +7127,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -6863,7 +7156,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -6894,7 +7187,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -6925,7 +7218,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -6956,7 +7249,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -6987,7 +7280,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -7018,7 +7311,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -7060,149 +7353,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7249,7 +7542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -7282,7 +7575,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -7313,7 +7606,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -7344,7 +7637,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -7375,7 +7668,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -7406,7 +7699,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -7435,7 +7728,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -7466,7 +7759,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -7497,7 +7790,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -7530,7 +7823,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -7559,7 +7852,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -7588,7 +7881,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -7617,7 +7910,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -7646,7 +7939,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -7677,7 +7970,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -7706,7 +7999,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>16</v>
       </c>
@@ -7735,7 +8028,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>17</v>
       </c>
@@ -7766,7 +8059,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -7799,7 +8092,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>19</v>
       </c>
@@ -7830,7 +8123,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -7863,7 +8156,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>21</v>
       </c>
@@ -7894,7 +8187,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -7940,145 +8233,145 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -8125,7 +8418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -8160,7 +8453,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -8191,7 +8484,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -8222,7 +8515,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -8253,7 +8546,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -8284,7 +8577,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -8315,7 +8608,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -8344,7 +8637,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -8373,7 +8666,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -8402,7 +8695,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -8431,7 +8724,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -8460,7 +8753,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -8489,7 +8782,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -8520,7 +8813,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -8551,7 +8844,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -8582,7 +8875,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8620,6 +8913,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17327D62-C8E3-4CD6-98D5-5695F4350F24}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9296875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="15.06640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" customWidth="1"/>
+    <col min="12" max="12" width="8.265625" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="78" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="78" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>491</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="80" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="K12" s="7">
+        <v>150</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K13" s="7">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="K17" s="7">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E20" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
@@ -8628,14 +9528,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+    <col min="3" max="3" width="39.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>278</v>
       </c>
@@ -8646,7 +9546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -8657,7 +9557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -8668,7 +9568,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -8679,7 +9579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
@@ -8690,7 +9590,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -8701,7 +9601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -8712,7 +9612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -8723,7 +9623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -8734,7 +9634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -8745,32 +9645,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8789,12 +9689,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +9717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8834,7 +9734,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8853,7 +9753,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -8870,7 +9770,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -8887,7 +9787,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -8904,7 +9804,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -8921,7 +9821,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -8938,7 +9838,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -8953,7 +9853,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -8972,7 +9872,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -8989,7 +9889,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -9004,7 +9904,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -9019,7 +9919,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -9036,7 +9936,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -9051,7 +9951,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -9068,7 +9968,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -9085,7 +9985,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9094,7 +9994,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9103,7 +10003,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9112,7 +10012,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9121,7 +10021,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9130,7 +10030,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9139,7 +10039,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -9148,7 +10048,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9171,28 +10071,28 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="1" max="2" width="4.86328125" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="32">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="21" t="s">
         <v>461</v>
       </c>
@@ -9200,16 +10100,16 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="21" t="s">
         <v>464</v>
       </c>
@@ -9217,30 +10117,30 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="33"/>
+      <c r="B4" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="33"/>
       <c r="B5" s="23" t="s">
         <v>467</v>
       </c>
@@ -9260,8 +10160,8 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="33"/>
       <c r="B6" s="22">
         <v>1</v>
       </c>
@@ -9277,8 +10177,8 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
       <c r="B7" s="22">
         <v>2</v>
       </c>
@@ -9294,8 +10194,8 @@
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
       <c r="B8" s="22">
         <v>3</v>
       </c>
@@ -9313,8 +10213,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
       <c r="B9" s="22">
         <v>4</v>
       </c>
@@ -9332,14 +10232,14 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="34"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9366,145 +10266,145 @@
       <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="12.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -9551,7 +10451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -9586,7 +10486,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -9615,7 +10515,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -9646,7 +10546,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -9675,7 +10575,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -9704,7 +10604,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -9731,7 +10631,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -9758,7 +10658,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -9785,7 +10685,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -9818,7 +10718,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -9849,7 +10749,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -9882,7 +10782,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -9913,7 +10813,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -9946,7 +10846,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -9977,7 +10877,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -10006,7 +10906,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10023,22 +10923,22 @@
       <c r="N23" s="7"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B25" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:15" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+    <row r="26" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10070,145 +10970,145 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -10255,7 +11155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -10292,7 +11192,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -10323,7 +11223,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -10356,7 +11256,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -10389,7 +11289,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -10420,7 +11320,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -10453,7 +11353,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -10484,7 +11384,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -10517,7 +11417,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -10548,7 +11448,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -10577,7 +11477,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10623,152 +11523,152 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="19"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="19"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="18"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -10818,7 +11718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -10856,7 +11756,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -10890,7 +11790,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -10924,7 +11824,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -10956,7 +11856,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -10986,7 +11886,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -11016,7 +11916,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -11050,7 +11950,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -11084,7 +11984,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -11118,7 +12018,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -11150,7 +12050,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -11184,7 +12084,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -11216,7 +12116,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -11250,7 +12150,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -11282,7 +12182,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -11312,7 +12212,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -11330,51 +12230,51 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="66"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="32">
         <v>1</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="52" t="s">
+      <c r="I26" s="39"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="53"/>
+      <c r="L26" s="57"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -11382,73 +12282,73 @@
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="33"/>
+      <c r="B27" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="33" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="52" t="s">
+      <c r="I27" s="39"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="48" t="s">
+      <c r="L27" s="57"/>
+      <c r="M27" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="62" t="s">
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="33"/>
+      <c r="B28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="52" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="48" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="70" t="s">
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="33"/>
+      <c r="B29" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -11456,67 +12356,67 @@
       <c r="O29" s="8"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="33"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="67" t="s">
+      <c r="D30" s="77"/>
+      <c r="E30" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="52" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="52" t="s">
+      <c r="H30" s="57"/>
+      <c r="I30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="60"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" s="33"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="57" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="64"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -11585,145 +12485,145 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -11770,7 +12670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -11803,7 +12703,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -11838,7 +12738,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -11869,7 +12769,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -11900,7 +12800,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -11933,7 +12833,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -11964,7 +12864,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -11997,7 +12897,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -12028,7 +12928,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -12057,7 +12957,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -12103,147 +13003,147 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.46484375" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="4.53125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -12290,7 +13190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -12325,7 +13225,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -12356,7 +13256,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -12385,7 +13285,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -12418,7 +13318,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -12449,7 +13349,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -12480,7 +13380,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -12509,7 +13409,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -12540,7 +13440,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -12571,7 +13471,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -12602,7 +13502,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -12631,7 +13531,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -12660,7 +13560,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -12689,7 +13589,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -12718,7 +13618,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -12749,7 +13649,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>16</v>
       </c>
@@ -12780,7 +13680,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>17</v>
       </c>
@@ -12809,7 +13709,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -12840,7 +13740,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>19</v>
       </c>
@@ -12873,7 +13773,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -12904,7 +13804,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>21</v>
       </c>
@@ -12937,7 +13837,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>22</v>
       </c>
@@ -12968,7 +13868,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>23</v>
       </c>
@@ -12997,7 +13897,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -13014,22 +13914,22 @@
       <c r="N31" s="7"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="34"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="37"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nop-sys/model/nop-sys.orm.xlsx
+++ b/nop-sys/model/nop-sys.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-sys\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50930A05-AD58-4762-B2A0-AB2A2F84B02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F2DC1E-7D1C-4357-8623-2A838305F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="15" activeTab="18" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="14" activeTab="20" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="nop_sys_event" sheetId="20" r:id="rId17"/>
     <sheet name="nop_sys_service_instance" sheetId="21" r:id="rId18"/>
     <sheet name="nop_sys_change_log" sheetId="23" r:id="rId19"/>
+    <sheet name="nop_sys_tag" sheetId="24" r:id="rId20"/>
+    <sheet name="nop_sys_obj_tag" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="575">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,6 +2226,102 @@
   </si>
   <si>
     <t>审核人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_tag</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_OBJ_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biz Obj ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biz Obj Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopSysTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_sys_obj_tag</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象标签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obj Tag</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2664,10 +2762,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2679,12 +2804,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2692,12 +2811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,19 +2828,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,9 +2836,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3063,14 +3161,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.53125" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -3084,7 +3182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3096,7 +3194,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3108,7 +3206,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3120,7 +3218,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3132,7 +3230,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3144,7 +3242,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3156,7 +3254,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3168,7 +3266,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3180,7 +3278,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3192,43 +3290,43 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3259,23 +3357,23 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3396,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3421,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3440,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -3361,7 +3459,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -3378,7 +3476,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -3397,7 +3495,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3444,7 +3542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3479,7 +3577,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3510,7 +3608,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3543,7 +3641,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3574,7 +3672,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3603,7 +3701,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3636,7 +3734,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -3667,7 +3765,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -3700,7 +3798,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -3731,7 +3829,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -3764,7 +3862,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -3795,7 +3893,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -3824,7 +3922,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3869,23 +3967,23 @@
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3908,7 +4006,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +4031,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +4052,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -3973,7 +4071,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -3990,7 +4088,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -4009,7 +4107,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4056,7 +4154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4091,7 +4189,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4124,7 +4222,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4155,7 +4253,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4186,7 +4284,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4219,7 +4317,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4250,7 +4348,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4283,7 +4381,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -4314,7 +4412,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4347,7 +4445,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4378,7 +4476,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -4407,7 +4505,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4453,23 +4551,23 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4590,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +4615,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -4536,7 +4634,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -4555,7 +4653,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -4572,7 +4670,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -4591,7 +4689,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4638,7 +4736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4673,7 +4771,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4708,7 +4806,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4737,7 +4835,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4766,7 +4864,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4795,7 +4893,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4826,7 +4924,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4859,7 +4957,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -4890,7 +4988,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4923,7 +5021,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4954,7 +5052,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -5011,23 +5109,23 @@
       <selection activeCell="A12" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -5050,7 +5148,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -5075,7 +5173,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -5094,7 +5192,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -5113,7 +5211,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -5130,7 +5228,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -5149,7 +5247,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -5196,7 +5294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5229,7 +5327,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -5258,7 +5356,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5287,7 +5385,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5316,7 +5414,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5347,7 +5445,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5380,7 +5478,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5411,7 +5509,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -5444,7 +5542,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -5475,7 +5573,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -5532,23 +5630,23 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -5571,7 +5669,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -5596,7 +5694,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -5617,7 +5715,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -5636,7 +5734,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -5653,7 +5751,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -5672,7 +5770,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -5719,7 +5817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5752,7 +5850,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -5787,7 +5885,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5820,7 +5918,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5849,7 +5947,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5876,7 +5974,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5907,7 +6005,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5934,7 +6032,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -5961,7 +6059,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -5990,7 +6088,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -6021,7 +6119,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -6054,7 +6152,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -6085,7 +6183,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -6118,7 +6216,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -6149,7 +6247,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -6180,6 +6278,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -6187,12 +6291,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6207,23 +6305,23 @@
       <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -6246,7 +6344,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -6271,7 +6369,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -6290,7 +6388,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -6309,7 +6407,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -6326,7 +6424,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -6345,7 +6443,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -6392,7 +6490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -6425,7 +6523,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -6458,7 +6556,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -6489,7 +6587,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -6520,7 +6618,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -6549,7 +6647,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -6580,7 +6678,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -6611,7 +6709,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -6642,7 +6740,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -6673,7 +6771,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -6706,7 +6804,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -6737,7 +6835,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -6770,7 +6868,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -6801,7 +6899,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6817,6 +6915,1392 @@
       <c r="M21" s="11"/>
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>200</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:O5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="7">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="7">
+        <v>50</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="7">
+        <v>50</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6839,38 +8323,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F36B0-C752-4C39-A3AC-D90528A8A520}">
-  <dimension ref="A1:O17"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCAC3DE-314B-4CC5-902D-45CF16059DFE}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="49" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
@@ -6886,14 +8370,14 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="49" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
@@ -6902,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
@@ -6911,7 +8395,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -6930,7 +8414,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -6949,7 +8433,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -6966,7 +8450,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -6985,7 +8469,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7032,23 +8516,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>363</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
@@ -7058,28 +8544,28 @@
         <v>27</v>
       </c>
       <c r="K8" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="11"/>
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="11" t="s">
-        <v>348</v>
+        <v>429</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
@@ -7096,21 +8582,21 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7" t="s">
@@ -7127,121 +8613,121 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11" t="s">
-        <v>359</v>
+        <v>138</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>361</v>
+        <v>140</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="11"/>
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="11" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="11"/>
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="11" t="s">
-        <v>329</v>
+        <v>443</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>20</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="11"/>
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="11" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -7249,30 +8735,28 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>449</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>250</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -7280,53 +8764,231 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="11"/>
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7349,1601 +9011,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAB4296-7828-42FE-B6E5-E3EE71C343A7}">
-  <dimension ref="A1:O29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7">
-        <v>100</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="7">
-        <v>100</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="K11" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="7">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
-        <v>17</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7">
-        <v>50</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
-        <v>20</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="7">
-        <v>50</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
-        <v>21</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A5:O5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCAC3DE-314B-4CC5-902D-45CF16059DFE}">
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="7">
-        <v>50</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7">
-        <v>100</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="7">
-        <v>100</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7">
-        <v>100</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="7">
-        <v>100</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="7">
-        <v>20</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A5:O5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17327D62-C8E3-4CD6-98D5-5695F4350F24}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9296875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="15.06640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.73046875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.06640625" customWidth="1"/>
-    <col min="12" max="12" width="8.265625" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
         <v>486</v>
       </c>
       <c r="E1" s="50"/>
@@ -8961,13 +9059,13 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>489</v>
       </c>
       <c r="E2" s="50"/>
@@ -8987,13 +9085,13 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="s">
         <v>493</v>
       </c>
       <c r="E3" s="50"/>
@@ -9009,13 +9107,13 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80" t="s">
         <v>495</v>
       </c>
       <c r="E4" s="50"/>
@@ -9031,7 +9129,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -9049,27 +9147,27 @@
       <c r="O5" s="39"/>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>496</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>497</v>
       </c>
@@ -9119,7 +9217,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -9155,7 +9253,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -9187,7 +9285,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -9219,7 +9317,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -9249,7 +9347,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -9281,7 +9379,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -9313,7 +9411,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -9343,7 +9441,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -9373,7 +9471,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -9405,7 +9503,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -9435,7 +9533,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -9467,7 +9565,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -9497,7 +9595,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E20" s="31"/>
     </row>
   </sheetData>
@@ -9528,14 +9626,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" customWidth="1"/>
-    <col min="3" max="3" width="39.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>278</v>
       </c>
@@ -9546,7 +9644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -9557,7 +9655,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -9568,7 +9666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -9579,7 +9677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
@@ -9590,7 +9688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -9601,7 +9699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -9612,7 +9710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -9623,7 +9721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -9634,7 +9732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -9645,37 +9743,1221 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1368ABA1-86BA-464F-91D3-F31A9E5D489C}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K10" s="7">
+        <v>500</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="7">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3BC596-A8A2-4C7C-8F28-4048ED796CDE}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="7">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>1</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="62"/>
+      <c r="M19" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="62"/>
+      <c r="M20" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="62"/>
+      <c r="M21" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="77"/>
+      <c r="G23" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="62"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="69"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="71"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9689,12 +10971,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -9717,7 +10999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -9734,7 +11016,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -9753,7 +11035,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -9770,7 +11052,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -9787,7 +11069,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -9804,7 +11086,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -9821,7 +11103,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -9838,7 +11120,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -9853,7 +11135,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -9872,7 +11154,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -9889,7 +11171,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -9904,7 +11186,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -9919,7 +11201,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -9936,7 +11218,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -9951,7 +11233,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -9968,7 +11250,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -9985,7 +11267,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9994,7 +11276,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10003,7 +11285,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10012,7 +11294,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10021,7 +11303,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -10030,7 +11312,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10039,7 +11321,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10048,7 +11330,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10071,17 +11353,17 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.86328125" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" customWidth="1"/>
+    <col min="1" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
-    <col min="7" max="7" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="32">
         <v>1</v>
       </c>
@@ -10100,7 +11382,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="35" t="s">
         <v>463</v>
@@ -10117,7 +11399,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
         <v>465</v>
@@ -10128,7 +11410,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="40" t="s">
         <v>466</v>
@@ -10139,7 +11421,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="42"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="23" t="s">
         <v>467</v>
@@ -10160,7 +11442,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="22">
         <v>1</v>
@@ -10177,7 +11459,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="22">
         <v>2</v>
@@ -10194,7 +11476,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="22">
         <v>3</v>
@@ -10213,7 +11495,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="22">
         <v>4</v>
@@ -10232,7 +11514,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="43"/>
       <c r="C10" s="44"/>
@@ -10266,23 +11548,23 @@
       <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="12.53125" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -10305,7 +11587,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -10330,7 +11612,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -10349,7 +11631,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -10368,7 +11650,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -10385,7 +11667,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -10404,7 +11686,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -10451,7 +11733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -10486,7 +11768,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -10515,7 +11797,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -10546,7 +11828,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -10575,7 +11857,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -10604,7 +11886,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -10631,7 +11913,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -10658,7 +11940,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -10685,7 +11967,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -10718,7 +12000,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -10749,7 +12031,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -10782,7 +12064,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -10813,7 +12095,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -10846,7 +12128,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -10877,7 +12159,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -10906,7 +12188,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10923,13 +12205,13 @@
       <c r="N23" s="7"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
         <v>77</v>
       </c>
@@ -10970,23 +12252,23 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -11009,7 +12291,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -11034,7 +12316,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -11053,7 +12335,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -11072,7 +12354,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -11089,7 +12371,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -11108,7 +12390,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -11155,7 +12437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -11192,7 +12474,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -11223,7 +12505,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -11256,7 +12538,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -11289,7 +12571,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -11320,7 +12602,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -11353,7 +12635,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -11384,7 +12666,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -11417,7 +12699,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -11448,7 +12730,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -11477,7 +12759,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -11520,27 +12802,27 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A25" sqref="A25:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -11564,7 +12846,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -11590,7 +12872,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -11610,7 +12892,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -11630,7 +12912,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -11648,7 +12930,7 @@
       <c r="O5" s="39"/>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -11668,7 +12950,7 @@
       <c r="O6" s="48"/>
       <c r="P6" s="48"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -11718,7 +13000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -11756,7 +13038,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -11790,7 +13072,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -11824,7 +13106,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -11856,7 +13138,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -11886,7 +13168,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -11916,7 +13198,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -11950,7 +13232,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -11984,7 +13266,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -12018,7 +13300,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -12050,7 +13332,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -12084,7 +13366,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -12116,7 +13398,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -12150,7 +13432,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -12182,7 +13464,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -12212,7 +13494,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -12230,34 +13512,34 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>1</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="67"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="37" t="s">
         <v>150</v>
       </c>
@@ -12271,10 +13553,10 @@
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="57"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="11" t="s">
         <v>152</v>
       </c>
@@ -12282,12 +13564,12 @@
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="37" t="s">
         <v>34</v>
       </c>
@@ -12301,10 +13583,10 @@
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="38"/>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="52" t="s">
         <v>79</v>
       </c>
@@ -12312,12 +13594,12 @@
       <c r="O27" s="53"/>
       <c r="P27" s="54"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="37"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -12325,10 +13607,10 @@
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="52" t="s">
         <v>315</v>
       </c>
@@ -12336,19 +13618,19 @@
       <c r="O28" s="53"/>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="76"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -12356,67 +13638,67 @@
       <c r="O29" s="8"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="71" t="s">
+      <c r="D30" s="66"/>
+      <c r="E30" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="56" t="s">
+      <c r="F30" s="77"/>
+      <c r="G30" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="56" t="s">
+      <c r="H30" s="62"/>
+      <c r="I30" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J30" s="62"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="69"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="62"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="64"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="71"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="62"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="62"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="10"/>
@@ -12428,6 +13710,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:H32"/>
@@ -12444,33 +13753,6 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12485,23 +13767,23 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -12524,7 +13806,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -12549,7 +13831,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -12568,7 +13850,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -12587,7 +13869,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12604,7 +13886,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -12623,7 +13905,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -12670,7 +13952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -12703,7 +13985,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -12738,7 +14020,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -12769,7 +14051,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -12800,7 +14082,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -12833,7 +14115,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -12864,7 +14146,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -12897,7 +14179,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -12928,7 +14210,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -12957,7 +14239,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -13003,23 +14285,23 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="4.53125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -13042,7 +14324,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -13067,7 +14349,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
@@ -13086,7 +14368,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -13107,7 +14389,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -13124,7 +14406,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
@@ -13143,7 +14425,7 @@
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -13190,7 +14472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -13225,7 +14507,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -13256,7 +14538,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -13285,7 +14567,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -13318,7 +14600,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -13349,7 +14631,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -13380,7 +14662,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -13409,7 +14691,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -13440,7 +14722,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -13471,7 +14753,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -13502,7 +14784,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -13531,7 +14813,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -13560,7 +14842,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -13589,7 +14871,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -13618,7 +14900,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -13649,7 +14931,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>16</v>
       </c>
@@ -13680,7 +14962,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>17</v>
       </c>
@@ -13709,7 +14991,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>18</v>
       </c>
@@ -13740,7 +15022,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>19</v>
       </c>
@@ -13773,7 +15055,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -13804,7 +15086,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>21</v>
       </c>
@@ -13837,7 +15119,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>22</v>
       </c>
@@ -13868,7 +15150,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>23</v>
       </c>
@@ -13897,7 +15179,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -13914,7 +15196,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -13933,6 +15215,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -13941,12 +15229,6 @@
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
